--- a/data/trans_dic/P02E$contratada-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P02E$contratada-Clase-trans_dic.xlsx
@@ -678,28 +678,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01968401089138785</v>
+        <v>0.01960016795386933</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01046002094342161</v>
+        <v>0.01078555609702064</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.009635842009152134</v>
+        <v>0.0107746032115596</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02022457102474253</v>
+        <v>0.01900533955000426</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02072757850547443</v>
+        <v>0.01997580501485717</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.009073075189156041</v>
+        <v>0.009573051973251654</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02754303819583692</v>
+        <v>0.02977585274520113</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02341367076440416</v>
+        <v>0.02400983805347869</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05286360517168951</v>
+        <v>0.04735211583555821</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1030301402484147</v>
+        <v>0.1100501434773753</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1075846744577524</v>
+        <v>0.1066746476195712</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09282126396291189</v>
+        <v>0.08881009220051914</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09902689492788143</v>
+        <v>0.0996997626863429</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08899664803999673</v>
+        <v>0.09481137787255456</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05762153194448639</v>
+        <v>0.05819391711664627</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07821936685586564</v>
+        <v>0.08253953504165415</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07831370871519468</v>
+        <v>0.07878777863406076</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01968976997048297</v>
+        <v>0.02001465603641428</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008232484800000156</v>
+        <v>0.008188820973618321</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.004519789754769057</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006480108454617521</v>
+        <v>0.006350577136796012</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01329595095604636</v>
+        <v>0.01174641310993945</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00299459142779169</v>
+        <v>0.005250648881428702</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01000975891547992</v>
+        <v>0.01044275114870906</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.171438747514299</v>
+        <v>0.1516530663265193</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05918922090939528</v>
+        <v>0.05273279651250402</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07293104329047591</v>
+        <v>0.0764791761663868</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05029746829822684</v>
+        <v>0.05208226439385127</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04077520719228561</v>
+        <v>0.04090682418686612</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0775514077525325</v>
+        <v>0.06833941496045066</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07297313309817408</v>
+        <v>0.06720503644351643</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03620776064101465</v>
+        <v>0.0373353540371459</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05376212950164622</v>
+        <v>0.05365609086088514</v>
       </c>
     </row>
     <row r="10">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005016671705494573</v>
+        <v>0.004925058959506854</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007217526437488686</v>
+        <v>0.007244419612460979</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
@@ -909,13 +909,13 @@
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.004754120890207557</v>
+        <v>0.004742807880698506</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.00630348025598623</v>
+        <v>0.006255362330181726</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.005236656751724179</v>
+        <v>0.005152156593562478</v>
       </c>
     </row>
     <row r="12">
@@ -926,29 +926,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0556023238809436</v>
+        <v>0.04884898804487631</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04738452014018204</v>
+        <v>0.05003356210433267</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07439976322732027</v>
+        <v>0.06824892669317183</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08642799879819348</v>
+        <v>0.1052137606071924</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0484969203441209</v>
+        <v>0.04748815716288919</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.04467330974253678</v>
+        <v>0.04537015815175132</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03573953257834177</v>
+        <v>0.03555026347254703</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05026925328325484</v>
+        <v>0.04610492512197243</v>
       </c>
     </row>
     <row r="13">
@@ -1004,25 +1004,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004061387123604918</v>
+        <v>0.004024816439850911</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01175072166197727</v>
+        <v>0.01354453367608871</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.00678626705838318</v>
+        <v>0.00523730163156103</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.002894273596022789</v>
+        <v>0.002914835095050643</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.00856785604854496</v>
+        <v>0.00921235603432885</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.003934609557898583</v>
+        <v>0.004080957674738426</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.00461353546899061</v>
+        <v>0.004264801023428925</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02737894125887646</v>
+        <v>0.03481920682722422</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01356642240697653</v>
+        <v>0.0148510601661275</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04675705647581064</v>
+        <v>0.03953961041606648</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06760278485326902</v>
+        <v>0.06676833646189163</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04175693601440534</v>
+        <v>0.03725542695607782</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02648403464804605</v>
+        <v>0.02577196114329099</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04025065289954247</v>
+        <v>0.03874170503607451</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02188869216616985</v>
+        <v>0.0223144940319889</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0245584156979913</v>
+        <v>0.02432906678010584</v>
       </c>
     </row>
     <row r="16">
@@ -1111,21 +1111,21 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.005917650236086124</v>
+        <v>0.00597132940623146</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
-        <v>0.005853789328707427</v>
+        <v>0.006057348973944874</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.004191000471703616</v>
+        <v>0.003994376304638838</v>
       </c>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="n">
-        <v>0.006595035363515536</v>
+        <v>0.007034025982166558</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.009674580293281804</v>
+        <v>0.00783384346940991</v>
       </c>
     </row>
     <row r="18">
@@ -1137,24 +1137,24 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.05690059109193032</v>
+        <v>0.05113347797499032</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05710463270462705</v>
+        <v>0.06232906134957995</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>0.03654476851761175</v>
+        <v>0.03591944596603495</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04241890583617563</v>
+        <v>0.04103083450374177</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.03342516653851454</v>
+        <v>0.03296822661646215</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03805092297313675</v>
+        <v>0.03672447761587969</v>
       </c>
     </row>
     <row r="19">
@@ -1210,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.003685432350131779</v>
+        <v>0.003706889821272734</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.006494168274091323</v>
+        <v>0.006505388793755769</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.003702237661927043</v>
+        <v>0.003599010547933984</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.006126964275088581</v>
+        <v>0.005931582640472373</v>
       </c>
     </row>
     <row r="21">
@@ -1236,22 +1236,22 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.0330952617697548</v>
+        <v>0.02796488161924582</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03761292942386731</v>
+        <v>0.03827711555377945</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.05517992037208398</v>
+        <v>0.06004530222762075</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03012080839320225</v>
+        <v>0.03087693177930138</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03328040620570199</v>
+        <v>0.03700090590023113</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05672933011346338</v>
+        <v>0.05541738241069726</v>
       </c>
     </row>
     <row r="22">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.008495247021382969</v>
+        <v>0.008612073867771745</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.00975808502566191</v>
+        <v>0.009856341343384256</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01429415116986591</v>
+        <v>0.01448528926549567</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01018671721463296</v>
+        <v>0.01048718126833139</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01178129628689595</v>
+        <v>0.01213254958063015</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01284670759518878</v>
+        <v>0.01260842445045269</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01156528088990156</v>
+        <v>0.01172308551921104</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01294427795160135</v>
+        <v>0.01323873578578697</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01542109921518203</v>
+        <v>0.01518361114447785</v>
       </c>
     </row>
     <row r="24">
@@ -1336,31 +1336,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03340353868922658</v>
+        <v>0.03270489087822527</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02697739162228813</v>
+        <v>0.02782786998637292</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03592626923690907</v>
+        <v>0.03574605481140702</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02734705017325349</v>
+        <v>0.02831570756159616</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02735613991867591</v>
+        <v>0.02750151604773016</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.030463083975903</v>
+        <v>0.03037190938159711</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02629864834221244</v>
+        <v>0.02620344227719128</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02420403160770277</v>
+        <v>0.02520689071286882</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02874180742704161</v>
+        <v>0.02969633220531832</v>
       </c>
     </row>
     <row r="25">
@@ -1594,28 +1594,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2969</v>
+        <v>2956</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1013</v>
+        <v>1045</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1023</v>
+        <v>1144</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3311</v>
+        <v>3111</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2960</v>
+        <v>2853</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1998</v>
+        <v>2108</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8663</v>
+        <v>9365</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5612</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="7">
@@ -1626,31 +1626,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6030</v>
+        <v>5402</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15541</v>
+        <v>16599</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>10420</v>
+        <v>10332</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9855</v>
+        <v>9429</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16210</v>
+        <v>16320</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>12711</v>
+        <v>13541</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12691</v>
+        <v>12817</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>24602</v>
+        <v>25961</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>18770</v>
+        <v>18884</v>
       </c>
     </row>
     <row r="8">
@@ -1735,31 +1735,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1678</v>
+        <v>1706</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>895</v>
+        <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3030</v>
+        <v>2677</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1055</v>
+        <v>1851</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2648</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="11">
@@ -1770,31 +1770,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14610</v>
+        <v>12924</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9145</v>
+        <v>8148</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7815</v>
+        <v>8195</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7178</v>
+        <v>7432</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>8071</v>
+        <v>8097</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>12203</v>
+        <v>10754</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>16632</v>
+        <v>15318</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12761</v>
+        <v>13159</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14221</v>
+        <v>14193</v>
       </c>
     </row>
     <row r="12">
@@ -1882,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>975</v>
+        <v>957</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1915</v>
+        <v>1900</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1018</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="15">
@@ -1912,29 +1912,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6709</v>
+        <v>5894</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9212</v>
+        <v>9727</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10418</v>
+        <v>9557</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5823</v>
+        <v>7089</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5305</v>
+        <v>5195</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>8400</v>
+        <v>8531</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>10857</v>
+        <v>10800</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9773</v>
+        <v>8964</v>
       </c>
     </row>
     <row r="16">
@@ -2025,25 +2025,25 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2930</v>
+        <v>3377</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2705</v>
+        <v>2087</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4139</v>
+        <v>4450</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2912</v>
+        <v>3021</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2608</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="19">
@@ -2054,31 +2054,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6399</v>
+        <v>8138</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4634</v>
+        <v>5073</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11975</v>
+        <v>10126</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>16855</v>
+        <v>16647</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>16643</v>
+        <v>14849</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8187</v>
+        <v>7967</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>19443</v>
+        <v>18714</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>16201</v>
+        <v>16516</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>13881</v>
+        <v>13752</v>
       </c>
     </row>
     <row r="20">
@@ -2167,21 +2167,21 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="F22" s="6" t="inlineStr"/>
       <c r="G22" s="6" t="n">
-        <v>2094</v>
+        <v>2167</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1046</v>
+        <v>997</v>
       </c>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="n">
-        <v>3251</v>
+        <v>3468</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3730</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="23">
@@ -2193,24 +2193,24 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>7698</v>
+        <v>6918</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7769</v>
+        <v>8479</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>13073</v>
+        <v>12849</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10583</v>
+        <v>10236</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>16479</v>
+        <v>16254</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>14670</v>
+        <v>14158</v>
       </c>
     </row>
     <row r="24">
@@ -2301,19 +2301,19 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1091</v>
+        <v>1061</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1310</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="27">
@@ -2327,22 +2327,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>8258</v>
+        <v>6978</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>10777</v>
+        <v>10967</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>10728</v>
+        <v>11674</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>7822</v>
+        <v>8019</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>9808</v>
+        <v>10904</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>12127</v>
+        <v>11847</v>
       </c>
     </row>
     <row r="28">
@@ -2427,31 +2427,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5320</v>
+        <v>5393</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>9610</v>
+        <v>9707</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>10800</v>
+        <v>10944</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>10235</v>
+        <v>10537</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>17835</v>
+        <v>18367</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>14229</v>
+        <v>13965</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>18862</v>
+        <v>19120</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>32343</v>
+        <v>33079</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>28732</v>
+        <v>28289</v>
       </c>
     </row>
     <row r="31">
@@ -2462,31 +2462,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>20917</v>
+        <v>20480</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>26567</v>
+        <v>27405</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>27144</v>
+        <v>27007</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>27477</v>
+        <v>28450</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>41413</v>
+        <v>41633</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>33741</v>
+        <v>33640</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>42891</v>
+        <v>42736</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>60477</v>
+        <v>62983</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>53550</v>
+        <v>55329</v>
       </c>
     </row>
     <row r="32">
